--- a/results/I3_N5_M2_T30_C150_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1835.909519245783</v>
+        <v>27.36305227053332</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.57702921450956</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.98954917866259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.192039209931101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.9100000000046</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,105 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -868,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.35124120223184</v>
+        <v>23.8863479000213</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.163074147185014</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.64875879776816</v>
+        <v>25.11125526828178</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.271365267029086</v>
+        <v>22.7338617375427</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.978580466864702</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.83692585281499</v>
+        <v>27.45511519420007</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.9200084964106</v>
+        <v>27.23375379596089</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,202 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>224.735</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>229.38</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1360,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>237.25</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
@@ -1371,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>233.64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>231.79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>162.7550000000006</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1404,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>164.4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1415,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>169.5450000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>171.4950000000006</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1437,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>169.9650000000006</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1448,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.5599999999993</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
@@ -1470,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.4099999999993</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -1481,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.7299999999993</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -1492,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -1503,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1514,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1525,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1536,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1547,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1558,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1569,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1580,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1591,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1602,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>162.7550000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1624,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>164.4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -1635,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>169.5450000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>171.4950000000006</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36">
@@ -1657,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>169.9650000000006</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -1668,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>224.735</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
@@ -1679,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>229.38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
@@ -1690,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>237.25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -1701,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>233.64</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41">
@@ -1712,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>231.79</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.75500000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1770,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.54500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1792,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>21.49500000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1803,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19.96500000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1814,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>74.73500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1825,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>79.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1836,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>87.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1847,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>83.63999999999999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>81.78999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1971,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1982,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1993,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2026,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2048,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2059,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2070,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2092,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2103,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2114,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2125,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2136,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2147,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2158,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2210,166 +1915,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
